--- a/results/DeterministicUSM/dataset_05/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_05/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,67 +579,67 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>140</v>
+        <v>312</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.45662100456621</v>
+        <v>0.7682539682539683</v>
       </c>
       <c r="O2">
-        <v>239</v>
+        <v>380</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="Q2">
-        <v>2.48073127837752</v>
+        <v>1.765783982824794</v>
       </c>
       <c r="R2">
-        <v>169.3853744324496</v>
+        <v>200.2240411163884</v>
       </c>
       <c r="S2">
-        <v>11.95</v>
+        <v>5.846153846153846</v>
       </c>
       <c r="T2">
-        <v>3.5</v>
+        <v>4.457142857142857</v>
       </c>
       <c r="U2">
-        <v>1.252762968495368</v>
+        <v>1.494507945760123</v>
       </c>
       <c r="V2">
-        <v>49.88948126018528</v>
+        <v>137.3844437967913</v>
       </c>
       <c r="W2">
-        <v>631</v>
+        <v>489</v>
       </c>
       <c r="X2">
         <v>731</v>
       </c>
       <c r="Y2">
-        <v>512</v>
+        <v>416</v>
       </c>
       <c r="Z2">
-        <v>1.232421875</v>
+        <v>1.175480769230769</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -659,67 +659,67 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>214</v>
+        <v>480</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I3">
-        <v>186</v>
+        <v>408</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
-        <v>297</v>
+        <v>527</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.6262626262626263</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="O3">
-        <v>317</v>
+        <v>583</v>
       </c>
       <c r="P3">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="Q3">
-        <v>2.763169500323289</v>
+        <v>2.342835495615343</v>
       </c>
       <c r="R3">
-        <v>241.7366099935342</v>
+        <v>395.8012122455408</v>
       </c>
       <c r="S3">
-        <v>15.85</v>
+        <v>10.41071428571429</v>
       </c>
       <c r="T3">
-        <v>7.642857142857143</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="U3">
-        <v>2.033771504846648</v>
+        <v>1.897119984885881</v>
       </c>
       <c r="V3">
-        <v>129.0543978642939</v>
+        <v>271.4073610882165</v>
       </c>
       <c r="W3">
-        <v>940</v>
+        <v>718</v>
       </c>
       <c r="X3">
         <v>1126</v>
       </c>
       <c r="Y3">
-        <v>829</v>
+        <v>599</v>
       </c>
       <c r="Z3">
-        <v>1.133896260554885</v>
+        <v>1.198664440734558</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -745,10 +745,10 @@
         <v>81</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="J4">
         <v>0.05</v>
@@ -763,7 +763,7 @@
         <v>0.05</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="O4">
         <v>81</v>
@@ -781,16 +781,16 @@
         <v>16.2</v>
       </c>
       <c r="T4">
-        <v>16.2</v>
+        <v>3.24</v>
       </c>
       <c r="U4">
-        <v>2.785011242238338</v>
+        <v>1.175573329804238</v>
       </c>
       <c r="V4">
-        <v>62.07494378880831</v>
+        <v>26.61066675489405</v>
       </c>
       <c r="W4">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="X4">
         <v>592</v>
@@ -799,7 +799,7 @@
         <v>516</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>1.038759689922481</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="I5">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
-        <v>121</v>
+        <v>222</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.8760330578512396</v>
+        <v>0.8153153153153153</v>
       </c>
       <c r="O5">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="P5">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q5">
-        <v>2.332890442489375</v>
+        <v>1.81852971029266</v>
       </c>
       <c r="R5">
-        <v>90.67242424763813</v>
+        <v>143.8032224574156</v>
       </c>
       <c r="S5">
-        <v>10.30769230769231</v>
+        <v>6.162790697674419</v>
       </c>
       <c r="T5">
-        <v>6.578947368421052</v>
+        <v>3.828125</v>
       </c>
       <c r="U5">
-        <v>1.883874758135861</v>
+        <v>1.342375127185055</v>
       </c>
       <c r="V5">
-        <v>70.20637959541864</v>
+        <v>95.08799186015648</v>
       </c>
       <c r="W5">
-        <v>458</v>
+        <v>383</v>
       </c>
       <c r="X5">
         <v>564</v>
       </c>
       <c r="Y5">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="Z5">
-        <v>1.033860045146727</v>
+        <v>1.119883040935673</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,67 +899,67 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>317</v>
+        <v>572</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="I6">
-        <v>277</v>
+        <v>464</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
-        <v>371</v>
+        <v>665</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.7466307277628033</v>
+        <v>0.6977443609022557</v>
       </c>
       <c r="O6">
-        <v>404</v>
+        <v>713</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="Q6">
-        <v>2.50490731649467</v>
+        <v>2.698280409506405</v>
       </c>
       <c r="R6">
-        <v>288.3380585556759</v>
+        <v>535.4825403436926</v>
       </c>
       <c r="S6">
-        <v>12.24242424242424</v>
+        <v>14.85416666666667</v>
       </c>
       <c r="T6">
-        <v>7.925</v>
+        <v>5.296296296296297</v>
       </c>
       <c r="U6">
-        <v>2.070022319763344</v>
+        <v>1.667007764255578</v>
       </c>
       <c r="V6">
-        <v>194.1991072094662</v>
+        <v>283.9631614603975</v>
       </c>
       <c r="W6">
-        <v>1218</v>
+        <v>1031</v>
       </c>
       <c r="X6">
         <v>1495</v>
       </c>
       <c r="Y6">
-        <v>1124</v>
+        <v>830</v>
       </c>
       <c r="Z6">
-        <v>1.083629893238434</v>
+        <v>1.242168674698795</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -979,67 +979,67 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="H7">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I7">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.8181818181818182</v>
+        <v>0.7268041237113402</v>
       </c>
       <c r="O7">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="P7">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="Q7">
-        <v>1.490091154801534</v>
+        <v>1.539096423075855</v>
       </c>
       <c r="R7">
-        <v>62.31708304635091</v>
+        <v>112.4278895769797</v>
       </c>
       <c r="S7">
-        <v>4.4375</v>
+        <v>4.660377358490566</v>
       </c>
       <c r="T7">
-        <v>3.647058823529412</v>
+        <v>2.698795180722891</v>
       </c>
       <c r="U7">
-        <v>1.293921040988876</v>
+        <v>0.9928054440584418</v>
       </c>
       <c r="V7">
-        <v>46.00668460637823</v>
+        <v>58.59714814314933</v>
       </c>
       <c r="W7">
-        <v>594</v>
+        <v>543</v>
       </c>
       <c r="X7">
         <v>684</v>
       </c>
       <c r="Y7">
-        <v>574</v>
+        <v>490</v>
       </c>
       <c r="Z7">
-        <v>1.034843205574913</v>
+        <v>1.108163265306122</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1059,67 +1059,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K8">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.8165137614678899</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="O8">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="P8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q8">
-        <v>2.112231364502827</v>
+        <v>1.722766597741104</v>
       </c>
       <c r="R8">
-        <v>77.31652953245759</v>
+        <v>71.9308350564724</v>
       </c>
       <c r="S8">
-        <v>8.266666666666667</v>
+        <v>5.6</v>
       </c>
       <c r="T8">
-        <v>3.542857142857143</v>
+        <v>2.8</v>
       </c>
       <c r="U8">
-        <v>1.264933504115623</v>
+        <v>1.029619417181158</v>
       </c>
       <c r="V8">
-        <v>44.72732735595319</v>
+        <v>38.5190291409421</v>
       </c>
       <c r="W8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X8">
         <v>401</v>
       </c>
       <c r="Y8">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Z8">
-        <v>1.068493150684932</v>
+        <v>1.087412587412588</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>377</v>
+        <v>718</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I9">
-        <v>357</v>
+        <v>658</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
-        <v>389</v>
+        <v>678</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.9177377892030848</v>
+        <v>0.9705014749262537</v>
       </c>
       <c r="O9">
-        <v>402</v>
+        <v>721</v>
       </c>
       <c r="P9">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q9">
-        <v>3.431502731157484</v>
+        <v>2.819439021591386</v>
       </c>
       <c r="R9">
-        <v>344.3904644949527</v>
+        <v>556.7641220715703</v>
       </c>
       <c r="S9">
-        <v>30.92307692307692</v>
+        <v>16.76744186046512</v>
       </c>
       <c r="T9">
-        <v>18.85</v>
+        <v>11.96666666666667</v>
       </c>
       <c r="U9">
-        <v>2.93651291389402</v>
+        <v>2.482125006826124</v>
       </c>
       <c r="V9">
-        <v>298.2697417221196</v>
+        <v>509.0724995904326</v>
       </c>
       <c r="W9">
-        <v>1206</v>
+        <v>905</v>
       </c>
       <c r="X9">
         <v>1563</v>
       </c>
       <c r="Y9">
-        <v>1174</v>
+        <v>885</v>
       </c>
       <c r="Z9">
-        <v>1.027257240204429</v>
+        <v>1.022598870056497</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>227</v>
+        <v>424</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I10">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>327</v>
+        <v>512</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.6024464831804281</v>
+        <v>0.724609375</v>
       </c>
       <c r="O10">
-        <v>357</v>
+        <v>560</v>
       </c>
       <c r="P10">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q10">
-        <v>2.476538400117484</v>
+        <v>2.456735772821304</v>
       </c>
       <c r="R10">
-        <v>252.7038479964755</v>
+        <v>394.0766829045774</v>
       </c>
       <c r="S10">
-        <v>11.9</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="T10">
-        <v>7.566666666666666</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>2.023752635819247</v>
+        <v>2.079441541679836</v>
       </c>
       <c r="V10">
-        <v>136.2874209254226</v>
+        <v>260.7895982909687</v>
       </c>
       <c r="W10">
-        <v>953</v>
+        <v>779</v>
       </c>
       <c r="X10">
         <v>1150</v>
       </c>
       <c r="Y10">
-        <v>823</v>
+        <v>638</v>
       </c>
       <c r="Z10">
-        <v>1.157958687727825</v>
+        <v>1.221003134796238</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,67 +1299,67 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N11">
-        <v>0.8222222222222222</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="O11">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="P11">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="Q11">
-        <v>0.8780695190539572</v>
+        <v>0.4467467670814683</v>
       </c>
       <c r="R11">
-        <v>16.90177539027337</v>
+        <v>10.13303126391226</v>
       </c>
       <c r="S11">
-        <v>2.40625</v>
+        <v>1.563218390804598</v>
       </c>
       <c r="T11">
-        <v>1.925</v>
+        <v>1.402061855670103</v>
       </c>
       <c r="U11">
-        <v>0.6549259677397475</v>
+        <v>0.3379439072326691</v>
       </c>
       <c r="V11">
-        <v>10.8029612904101</v>
+        <v>6.219440998431097</v>
       </c>
       <c r="W11">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="X11">
         <v>529</v>
       </c>
       <c r="Y11">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Z11">
-        <v>1.016528925619835</v>
+        <v>1.020833333333333</v>
       </c>
     </row>
   </sheetData>
